--- a/hiqu/HR/Performance Evaluation/November 2024/Dev/Saad Saeed.xlsx
+++ b/hiqu/HR/Performance Evaluation/November 2024/Dev/Saad Saeed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27843269-3796-4C45-8BAC-AD9EA8175495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDEC207-33CF-4251-826E-B02F2A8F78C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Consolidated" sheetId="5" r:id="rId3"/>
     <sheet name="November 2024" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Consolidated!$B$6:$M$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -942,6 +945,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -952,30 +979,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2903,7 +2906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2996,7 +2999,7 @@
       </c>
       <c r="C10" s="73">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>0.1095890410958904</v>
+        <v>0.12876712328767123</v>
       </c>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
@@ -3905,8 +3908,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7711944-9C3B-4B01-99AE-D20CEF7A29FD}">
   <dimension ref="B2:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3920,15 +3926,15 @@
     <col min="7" max="8" width="10.7109375" style="23" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.42578125" style="23" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" style="23" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" style="25" customWidth="1"/>
-    <col min="15" max="15" width="1.85546875" style="23" customWidth="1"/>
+    <col min="15" max="15" width="8" style="23" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="9.140625" style="23"/>
-    <col min="19" max="19" width="2.28515625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="21"/>
-    <col min="21" max="21" width="2.140625" style="22" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
@@ -4006,13 +4012,13 @@
       <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29" t="s">
         <v>84</v>
@@ -4020,24 +4026,24 @@
       <c r="K6" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="93" t="s">
+      <c r="L6" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="95" t="s">
+      <c r="M6" s="91" t="s">
         <v>72</v>
       </c>
       <c r="N6" s="30"/>
-      <c r="O6" s="92" t="s">
+      <c r="O6" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
       <c r="R6" s="32"/>
-      <c r="S6" s="97" t="s">
+      <c r="S6" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
       <c r="V6" s="32"/>
       <c r="W6" s="33" t="s">
         <v>12</v>
@@ -4071,8 +4077,8 @@
       <c r="K7" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="94"/>
-      <c r="M7" s="96"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="92"/>
       <c r="N7" s="30"/>
       <c r="O7" s="28" t="s">
         <v>11</v>
@@ -4355,7 +4361,9 @@
       </c>
       <c r="M15" s="58"/>
       <c r="N15" s="30"/>
-      <c r="O15" s="56"/>
+      <c r="O15" s="56">
+        <v>66</v>
+      </c>
       <c r="P15" s="54">
         <v>26.6</v>
       </c>
@@ -4393,7 +4401,9 @@
       </c>
       <c r="M16" s="58"/>
       <c r="N16" s="30"/>
-      <c r="O16" s="56"/>
+      <c r="O16" s="56">
+        <v>30</v>
+      </c>
       <c r="P16" s="54">
         <v>21.2</v>
       </c>
@@ -4582,41 +4592,41 @@
       </c>
       <c r="E22" s="62"/>
       <c r="F22" s="62">
-        <f>SUM(F8:F21)</f>
+        <f t="shared" ref="F22:M22" si="4">SUM(F8:F21)</f>
         <v>9.5</v>
       </c>
       <c r="G22" s="62">
-        <f>SUM(G8:G21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H22" s="62">
-        <f>SUM(H8:H21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I22" s="62">
-        <f>SUM(I8:I21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J22" s="62">
-        <f>SUM(J8:J21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K22" s="62">
-        <f>SUM(K8:K21)</f>
+        <f t="shared" si="4"/>
         <v>11.05</v>
       </c>
       <c r="L22" s="62">
-        <f>SUM(L8:L21)</f>
+        <f t="shared" si="4"/>
         <v>40.099999999999994</v>
       </c>
       <c r="M22" s="63">
-        <f>SUM(M8:M21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N22" s="30"/>
       <c r="O22" s="64">
         <f>SUM(O8:O21)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="P22" s="62">
         <f>SUM(P8:P21)</f>
@@ -4705,85 +4715,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
     </row>
     <row r="6" spans="2:24" s="34" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
@@ -4792,13 +4802,13 @@
       <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29" t="s">
         <v>84</v>
@@ -4806,24 +4816,24 @@
       <c r="K6" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="93" t="s">
+      <c r="L6" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="95" t="s">
+      <c r="M6" s="91" t="s">
         <v>72</v>
       </c>
       <c r="N6" s="30"/>
-      <c r="O6" s="92" t="s">
+      <c r="O6" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
       <c r="R6" s="32"/>
-      <c r="S6" s="97" t="s">
+      <c r="S6" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
       <c r="V6" s="32"/>
       <c r="W6" s="33" t="s">
         <v>12</v>
@@ -4857,8 +4867,8 @@
       <c r="K7" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="94"/>
-      <c r="M7" s="96"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="92"/>
       <c r="N7" s="30"/>
       <c r="O7" s="28" t="s">
         <v>11</v>
@@ -5368,35 +5378,35 @@
       </c>
       <c r="E22" s="62"/>
       <c r="F22" s="62">
-        <f>SUM(F8:F21)</f>
+        <f t="shared" ref="F22:M22" si="4">SUM(F8:F21)</f>
         <v>9.5</v>
       </c>
       <c r="G22" s="62">
-        <f>SUM(G8:G21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H22" s="62">
-        <f>SUM(H8:H21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I22" s="62">
-        <f>SUM(I8:I21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J22" s="62">
-        <f>SUM(J8:J21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K22" s="62">
-        <f>SUM(K8:K21)</f>
+        <f t="shared" si="4"/>
         <v>11.05</v>
       </c>
       <c r="L22" s="62">
-        <f>SUM(L8:L21)</f>
+        <f t="shared" si="4"/>
         <v>40.099999999999994</v>
       </c>
       <c r="M22" s="63">
-        <f>SUM(M8:M21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N22" s="30"/>
